--- a/SelNewFramework/TestSuite&Testcases/TestSuite1Data.xlsx
+++ b/SelNewFramework/TestSuite&Testcases/TestSuite1Data.xlsx
@@ -7,8 +7,7 @@
     <workbookView xWindow="0" yWindow="465" windowWidth="21720" windowHeight="13620"/>
   </bookViews>
   <sheets>
-    <sheet name="WorldPayForm" sheetId="2" r:id="rId1"/>
-    <sheet name="WorldpayLaunch" sheetId="3" r:id="rId2"/>
+    <sheet name="MasterTestData" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>waitfor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>admin1@gmail.com</t>
   </si>
@@ -68,6 +64,18 @@
   </si>
   <si>
     <t>SLK</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Get in contact</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -83,17 +91,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -121,15 +131,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -435,106 +446,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>88888888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>88888888</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>